--- a/biology/Médecine/Anévrisme_artériel_hépatique/Anévrisme_artériel_hépatique.xlsx
+++ b/biology/Médecine/Anévrisme_artériel_hépatique/Anévrisme_artériel_hépatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>An%C3%A9vrisme_art%C3%A9riel_h%C3%A9patique</t>
+          <t>Anévrisme_artériel_hépatique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anévrisme artériel hépatique est une lésion vasculaire circonscrite, très rare, se développant sur le trajet de l’artère hépatique (propre la plupart du temps ou commune parfois), par dilatation de ses parois et communiquant avec sa lumière, à la façon d’une poche.
 On distingue les anévrismes sacciformes et fusiformes.
